--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{F07C5983-2584-4499-B28F-7E3CF6956DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86D3063-CE98-4F08-A5DB-22FFCC7F0E0E}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="8_{F07C5983-2584-4499-B28F-7E3CF6956DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0BB86885-3BC5-4B46-9DC2-7D2C5DB86878}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>nombre resultados</t>
   </si>
   <si>
-    <t>Jorge</t>
-  </si>
-  <si>
     <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + distancia_parque + distancia_cc</t>
   </si>
   <si>
@@ -74,7 +71,7 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>ubmittor</t>
+    <t>submittor</t>
   </si>
 </sst>
 </file>
@@ -128,6 +125,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,7 +431,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -446,31 +447,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
-      </c>
-      <c r="J1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
@@ -478,16 +479,13 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>45210</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="8_{F07C5983-2584-4499-B28F-7E3CF6956DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B86D3063-CE98-4F08-A5DB-22FFCC7F0E0E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9678270-387E-4F05-B163-C25D1000F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelos" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>nombre resultados</t>
   </si>
@@ -74,7 +74,10 @@
     <t>fecha</t>
   </si>
   <si>
-    <t>ubmittor</t>
+    <t>submittor</t>
+  </si>
+  <si>
+    <t>mixture</t>
   </si>
 </sst>
 </file>
@@ -427,21 +430,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36088E1E-5397-4A27-B5D2-BDB53431AEEB}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.08984375" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="3" max="4" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,37 +466,43 @@
         <v>9</v>
       </c>
       <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <v>45210</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I3" s="1"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="I4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge_j24fcle\OneDrive\Escritorio\repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9678270-387E-4F05-B163-C25D1000F2F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC366740-AB6E-4185-B234-34F54766815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Modelos" sheetId="1" r:id="rId1"/>
+    <sheet name="Ridge" sheetId="1" r:id="rId1"/>
+    <sheet name="Lasso" sheetId="3" r:id="rId2"/>
+    <sheet name="Elastic net" sheetId="2" r:id="rId3"/>
+    <sheet name="Arboles" sheetId="4" r:id="rId4"/>
+    <sheet name="Forest" sheetId="5" r:id="rId5"/>
+    <sheet name="Boosting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
   <si>
     <t>nombre resultados</t>
   </si>
@@ -53,9 +58,6 @@
     <t>tanda</t>
   </si>
   <si>
-    <t>MAE_training</t>
-  </si>
-  <si>
     <t>MAE_comp</t>
   </si>
   <si>
@@ -78,14 +80,31 @@
   </si>
   <si>
     <t>mixture</t>
+  </si>
+  <si>
+    <t>numero de modelo</t>
+  </si>
+  <si>
+    <t>tanda1_modelo1</t>
+  </si>
+  <si>
+    <t>test_1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -113,9 +132,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,78 +454,234 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="4" width="13.140625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2">
+        <v>30.245804</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
         <v>3</v>
       </c>
-      <c r="H2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I2" s="1">
         <v>45210</v>
       </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>1</v>
       </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J3" s="1"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J4" s="1"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="I4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA81CDC-A987-4A1E-9ED2-D4335F948B07}">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93807B-CA29-4561-9944-C6DF81A0A8D9}">
+  <dimension ref="A1:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E7" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0F6C2-3AFA-41C2-B7E7-6C554E01DC08}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge_j24fcle\OneDrive\Escritorio\repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC366740-AB6E-4185-B234-34F54766815A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86965558-F673-4F25-BE0B-592EB54067E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
   <si>
     <t>nombre resultados</t>
   </si>
@@ -89,6 +89,21 @@
   </si>
   <si>
     <t>test_1</t>
+  </si>
+  <si>
+    <t>tree_depth</t>
+  </si>
+  <si>
+    <t>min_n</t>
+  </si>
+  <si>
+    <t>mtry</t>
+  </si>
+  <si>
+    <t>trees</t>
+  </si>
+  <si>
+    <t>learn_rate</t>
   </si>
 </sst>
 </file>
@@ -132,11 +147,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36088E1E-5397-4A27-B5D2-BDB53431AEEB}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -512,7 +526,7 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>30.245804</v>
+        <v>30245804</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -599,7 +613,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93807B-CA29-4561-9944-C6DF81A0A8D9}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -642,46 +656,182 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E7" s="3"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0F6C2-3AFA-41C2-B7E7-6C554E01DC08}">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0F6C2-3AFA-41C2-B7E7-6C554E01DC08}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge_j24fcle\OneDrive\Escritorio\repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86965558-F673-4F25-BE0B-592EB54067E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864D1DE-36B9-4EB1-B458-164EC5CF39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="21">
-  <si>
-    <t>nombre resultados</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
   <si>
     <t>Jorge</t>
   </si>
@@ -55,36 +52,12 @@
     <t>ridge</t>
   </si>
   <si>
-    <t>tanda</t>
-  </si>
-  <si>
     <t>MAE_comp</t>
   </si>
   <si>
     <t>Leaderboard</t>
   </si>
   <si>
-    <t>datos_usados</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>fecha</t>
-  </si>
-  <si>
-    <t>submittor</t>
-  </si>
-  <si>
-    <t>mixture</t>
-  </si>
-  <si>
-    <t>numero de modelo</t>
-  </si>
-  <si>
     <t>tanda1_modelo1</t>
   </si>
   <si>
@@ -104,13 +77,43 @@
   </si>
   <si>
     <t>learn_rate</t>
+  </si>
+  <si>
+    <t>Nombre Resultados</t>
+  </si>
+  <si>
+    <t>Tanda</t>
+  </si>
+  <si>
+    <t>Datos_Usados</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Mixture</t>
+  </si>
+  <si>
+    <t>Especificación</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t>Submittor</t>
+  </si>
+  <si>
+    <t># De Modelo</t>
+  </si>
+  <si>
+    <t>Especificacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,13 +129,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,10 +165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,65 +484,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36088E1E-5397-4A27-B5D2-BDB53431AEEB}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>14</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>30245804</v>
@@ -532,28 +552,28 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="1">
         <v>45210</v>
       </c>
       <c r="J2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -563,47 +583,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA81CDC-A987-4A1E-9ED2-D4335F948B07}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -613,47 +640,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93807B-CA29-4561-9944-C6DF81A0A8D9}">
+  <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>13</v>
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -663,54 +704,56 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0F6C2-3AFA-41C2-B7E7-6C554E01DC08}">
+  <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="12" max="12" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>13</v>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -720,56 +763,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
+  <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
+      <c r="M1" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -779,56 +823,59 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
+  <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864D1DE-36B9-4EB1-B458-164EC5CF39C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF893A3F-F3FB-4B46-93C0-967592CCFA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>Jorge</t>
   </si>
@@ -107,6 +107,12 @@
   </si>
   <si>
     <t>Especificacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nicolas </t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + distancia_parque + distancia_cc+suface_total*bedrooms+bedrooms*bathrooms</t>
   </si>
 </sst>
 </file>
@@ -487,8 +493,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +577,39 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I3" s="1"/>
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>299731073</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45210</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
@@ -826,8 +864,8 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge_j24fcle\OneDrive\Escritorio\repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF893A3F-F3FB-4B46-93C0-967592CCFA2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E0404-FBCB-49E8-B9BE-E600F8EDA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -493,20 +493,20 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -541,7 +541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -611,7 +611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -628,15 +628,15 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -685,22 +685,22 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -745,18 +745,19 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -808,12 +809,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -868,14 +869,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge_j24fcle\OneDrive\Escritorio\repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400E0404-FBCB-49E8-B9BE-E600F8EDA6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
   <si>
     <t>Jorge</t>
   </si>
@@ -113,13 +113,31 @@
   </si>
   <si>
     <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + distancia_parque + distancia_cc+suface_total*bedrooms+bedrooms*bathrooms</t>
+  </si>
+  <si>
+    <t>tanda1_lassomodelo1.</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>297,189,028.88040</t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + distancia_parque + distancia_cc+surface_total*bedrooms+bedrooms*bathrooms+ciclovia_near*distancia_bus</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +161,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -171,11 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,19 +519,19 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -541,7 +566,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -576,7 +601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -611,7 +636,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -622,21 +647,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA81CDC-A987-4A1E-9ED2-D4335F948B07}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -669,6 +691,41 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45210</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -685,22 +742,22 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -745,19 +802,19 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -809,12 +866,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -869,14 +926,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A094D1CE-C28F-44AA-843C-83CB0B45E73E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-27090" yWindow="1770" windowWidth="21600" windowHeight="11175" activeTab="2" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
   <si>
     <t>Jorge</t>
   </si>
@@ -131,6 +131,22 @@
   </si>
   <si>
     <t>Nicolas</t>
+  </si>
+  <si>
+    <t>tanda1_enet1</t>
+  </si>
+  <si>
+    <t>train_1</t>
+  </si>
+  <si>
+    <t>Elastic Net</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + distancia_parque + distancia_cc
+Interacciones: bathrooms:bedrooms + surface_total:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>0.0204</t>
   </si>
 </sst>
 </file>
@@ -195,12 +211,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,16 +544,16 @@
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -566,7 +588,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -601,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -636,7 +658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -649,16 +671,16 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="11" width="17.7109375" customWidth="1"/>
+    <col min="1" max="11" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -693,7 +715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -736,28 +758,27 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD93807B-CA29-4561-9944-C6DF81A0A8D9}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="10.36328125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -790,6 +811,41 @@
       </c>
       <c r="K1" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2">
+        <v>297610971</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="1">
+        <v>45211</v>
+      </c>
+      <c r="J2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -806,15 +862,15 @@
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -866,12 +922,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -926,14 +982,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A094D1CE-C28F-44AA-843C-83CB0B45E73E}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2619EAFC-CD9E-4D9C-BBF4-980688A434B3}"/>
   <bookViews>
-    <workbookView xWindow="-27090" yWindow="1770" windowWidth="21600" windowHeight="11175" activeTab="2" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-22170" yWindow="4665" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
   <si>
     <t>Jorge</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>tanda1_enet1</t>
-  </si>
-  <si>
-    <t>train_1</t>
   </si>
   <si>
     <t>Elastic Net</t>
@@ -147,6 +144,15 @@
   </si>
   <si>
     <t>0.0204</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>tanda1_tree1</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near +   distancia_parque + distancia_cc</t>
   </si>
 </sst>
 </file>
@@ -211,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -223,6 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -541,7 +548,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -599,7 +606,7 @@
         <v>6</v>
       </c>
       <c r="D2">
-        <v>30245804</v>
+        <v>307245804</v>
       </c>
       <c r="E2">
         <v>4</v>
@@ -671,8 +678,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -760,8 +767,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -821,7 +828,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>297610971</v>
@@ -830,13 +837,13 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="1">
         <v>45211</v>
@@ -856,15 +863,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FE0F6C2-3AFA-41C2-B7E7-6C554E01DC08}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.1796875" customWidth="1"/>
     <col min="10" max="11" width="11.7265625" customWidth="1"/>
     <col min="13" max="13" width="20.1796875" customWidth="1"/>
@@ -906,6 +915,44 @@
       </c>
       <c r="L1" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="7">
+        <v>303274595</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1">
+        <v>45211</v>
+      </c>
+      <c r="K2" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="13_ncr:1_{F963818A-D740-45A1-A46A-4D716E22AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2619EAFC-CD9E-4D9C-BBF4-980688A434B3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997638D8-51F7-49CC-AF4F-FB7C17DC99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22170" yWindow="4665" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t>Jorge</t>
   </si>
@@ -153,6 +153,16 @@
   </si>
   <si>
     <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near +   distancia_parque + distancia_cc</t>
+  </si>
+  <si>
+    <t>tanda2_lassomodelo1.0</t>
+  </si>
+  <si>
+    <t>281,857,046.08118</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + estrato + bedrooms + bathrooms + parqueadero +
+           distancia_bus + ciclovia_near + distancia_parque + distancia_cc+bedrooms*bathrooms+ciclovia_near*distancia_bus</t>
   </si>
 </sst>
 </file>
@@ -217,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -229,7 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,16 +560,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" customWidth="1"/>
-    <col min="5" max="5" width="18.26953125" customWidth="1"/>
-    <col min="8" max="8" width="30.7265625" customWidth="1"/>
-    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -595,7 +604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -630,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -665,7 +674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -676,18 +685,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA81CDC-A987-4A1E-9ED2-D4335F948B07}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="11" width="17.7265625" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="11" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -722,7 +732,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -754,6 +764,41 @@
         <v>29</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1">
+        <v>45212</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
     </row>
@@ -771,21 +816,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.36328125" customWidth="1"/>
-    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -820,7 +865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -865,21 +910,21 @@
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.1796875" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" customWidth="1"/>
-    <col min="10" max="11" width="11.7265625" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="11" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -917,7 +962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -927,7 +972,7 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2">
         <v>303274595</v>
       </c>
       <c r="E2">
@@ -969,12 +1014,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1029,14 +1074,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.81640625" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Universidad\Repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Universidad\8vo Semestre economía\Big Data y Machine Learning\Repositorios\P-Set2\db_tandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997638D8-51F7-49CC-AF4F-FB7C17DC99D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>Jorge</t>
   </si>
@@ -163,13 +163,22 @@
   <si>
     <t>price ~ year + surface_total + estrato + bedrooms + bathrooms + parqueadero +
            distancia_bus + ciclovia_near + distancia_parque + distancia_cc+bedrooms*bathrooms+ciclovia_near*distancia_bus</t>
+  </si>
+  <si>
+    <t>tanda2_lassomodelo2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> price ~ year + surface_total + estrato + bedrooms + bathrooms + parqueadero +  distancia_bus + ciclovia_near + distancia_parque + distancia_cc + property_type + property_type:parqueadero + estrato:surface_total </t>
+  </si>
+  <si>
+    <t>Daniel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,6 +208,12 @@
       <color rgb="FF202124"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -560,16 +575,16 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" customWidth="1"/>
+    <col min="8" max="8" width="30.7265625" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -604,7 +619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -639,7 +654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -674,7 +689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="I4" s="1"/>
     </row>
   </sheetData>
@@ -685,19 +700,21 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA81CDC-A987-4A1E-9ED2-D4335F948B07}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="11" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="7" width="17.7265625" customWidth="1"/>
+    <col min="8" max="8" width="207.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -732,7 +749,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -767,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -802,7 +819,43 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>283165000</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="1">
+        <v>45212</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -816,21 +869,21 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="8.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -865,7 +918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -914,17 +967,17 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" customWidth="1"/>
-    <col min="10" max="11" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.1796875" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" customWidth="1"/>
+    <col min="10" max="11" width="11.7265625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -962,7 +1015,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="14.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1014,12 +1067,12 @@
       <selection sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="13" max="13" width="20.140625" customWidth="1"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1074,14 +1127,14 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\Universidad\8vo Semestre economía\Big Data y Machine Learning\Repositorios\P-Set2\db_tandas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE2810A-CA23-4135-AA53-480CD653F46D}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
   <si>
     <t>Jorge</t>
   </si>
@@ -172,6 +172,19 @@
   </si>
   <si>
     <t>Daniel</t>
+  </si>
+  <si>
+    <t>tanda2_forest1.csv</t>
+  </si>
+  <si>
+    <t>test_2</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
++  distancia_parque + distancia_cc </t>
   </si>
 </sst>
 </file>
@@ -702,8 +715,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -964,7 +977,7 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1061,14 +1074,19 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.26953125" customWidth="1"/>
+    <col min="10" max="10" width="13.453125" customWidth="1"/>
     <col min="13" max="13" width="20.1796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1111,6 +1129,47 @@
       </c>
       <c r="M1" s="3" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>265553526</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>50</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FE2810A-CA23-4135-AA53-480CD653F46D}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4928CC99-A4D5-4837-B62C-6DB7F3F3D592}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
   <si>
     <t>Jorge</t>
   </si>
@@ -185,6 +185,15 @@
   <si>
     <t xml:space="preserve">price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
 +  distancia_parque + distancia_cc </t>
+  </si>
+  <si>
+    <t>results/tanda2_boost2.csv</t>
+  </si>
+  <si>
+    <t>results/tanda2_boost1.csv</t>
+  </si>
+  <si>
+    <t>boosting</t>
   </si>
 </sst>
 </file>
@@ -282,6 +291,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1076,8 +1089,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1087,7 +1100,7 @@
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="5" max="5" width="13.26953125" customWidth="1"/>
     <col min="10" max="10" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+    <col min="13" max="13" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.35">
@@ -1180,16 +1193,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.81640625" customWidth="1"/>
     <col min="13" max="13" width="21.81640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1234,6 +1248,88 @@
         <v>20</v>
       </c>
     </row>
+    <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2">
+        <v>296115263</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2">
+        <v>1.01</v>
+      </c>
+      <c r="H2">
+        <v>400</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" s="1">
+        <v>45213</v>
+      </c>
+      <c r="L2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>295770730</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3">
+        <v>1.02</v>
+      </c>
+      <c r="H3">
+        <v>400</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45213</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4928CC99-A4D5-4837-B62C-6DB7F3F3D592}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A104F731-AE9C-40BD-9C83-857A4C0FADC7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
   <si>
     <t>Jorge</t>
   </si>
@@ -194,6 +194,17 @@
   </si>
   <si>
     <t>boosting</t>
+  </si>
+  <si>
+    <t>tanda2_forest2.csv</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
++  distancia_parque + distancia_cc + UPL +  bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
++  distancia_parque + distancia_cc +  bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
   </si>
 </sst>
 </file>
@@ -1087,10 +1098,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1173,7 +1184,7 @@
         <v>20</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K2" s="1">
         <v>45213</v>
@@ -1183,6 +1194,47 @@
       </c>
       <c r="M2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3">
+        <v>234905643</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>50</v>
+      </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45214</v>
+      </c>
+      <c r="L3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1195,7 +1247,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A104F731-AE9C-40BD-9C83-857A4C0FADC7}"/>
+  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A760B3E1-B322-4C5A-9C25-3B03A09737BA}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
   <si>
     <t>Jorge</t>
   </si>
@@ -205,6 +205,30 @@
   <si>
     <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
 +  distancia_parque + distancia_cc +  bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
+           distancia_parque + distancia_cc , data = train 
+bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>tanda2_forest3.csv</t>
+  </si>
+  <si>
+    <t>tanda3_forest1.csv</t>
+  </si>
+  <si>
+    <t>test_3</t>
+  </si>
+  <si>
+    <t>tanda3_forest2.csv</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
++  distancia_parque + distancia_cc + UPL +   distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>results/tanda2_boost3.csv</t>
   </si>
 </sst>
 </file>
@@ -1098,10 +1122,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1237,6 +1261,170 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>234905643</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>50</v>
+      </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45214</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5">
+        <v>258699828</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K5" s="1">
+        <v>45215</v>
+      </c>
+      <c r="L5" t="s">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <v>272429852</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>50</v>
+      </c>
+      <c r="I6">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="K6" s="1">
+        <v>45215</v>
+      </c>
+      <c r="L6" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>272429852</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="1">
+        <v>45215</v>
+      </c>
+      <c r="L7" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1245,10 +1433,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B86F0D8D-8478-4007-AE7A-CC5923F47E04}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1382,6 +1570,47 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>295770730</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4">
+        <v>0.01</v>
+      </c>
+      <c r="H4">
+        <v>600</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="1">
+        <v>45215</v>
+      </c>
+      <c r="L4" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="131" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A760B3E1-B322-4C5A-9C25-3B03A09737BA}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C858D43F-FE76-46CD-9818-C73546FE2D75}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
   <si>
     <t>Jorge</t>
   </si>
@@ -229,6 +229,31 @@
   </si>
   <si>
     <t>results/tanda2_boost3.csv</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
+           distancia_parque + distancia_cc + UPL + estrato , data = train</t>
+  </si>
+  <si>
+    <t>tanda2_forest4.csv</t>
+  </si>
+  <si>
+    <t>tanda3_forest3.csv</t>
+  </si>
+  <si>
+    <t>tanda2_forest5.csv</t>
+  </si>
+  <si>
+    <t>tanda2_forest6.csv</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near +  distancia_parque + distancia_cc + estrato 
+bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
+           distancia_parque + distancia_cc + UPL 
+bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
   </si>
 </sst>
 </file>
@@ -1122,10 +1147,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1348,7 +1373,7 @@
         <v>57</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
@@ -1386,13 +1411,13 @@
     </row>
     <row r="7" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <v>272429852</v>
@@ -1423,6 +1448,129 @@
       </c>
       <c r="M7">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8">
+        <v>272429852</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>6</v>
+      </c>
+      <c r="H8">
+        <v>450</v>
+      </c>
+      <c r="I8">
+        <v>15</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K8" s="1">
+        <v>45216</v>
+      </c>
+      <c r="L8" t="s">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9">
+        <v>247433874</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K9" s="1">
+        <v>45216</v>
+      </c>
+      <c r="L9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10">
+        <v>247433874</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>300</v>
+      </c>
+      <c r="I10">
+        <v>50</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" s="1">
+        <v>45216</v>
+      </c>
+      <c r="L10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1583,7 @@
   <sheetPr codeName="Hoja6"/>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C858D43F-FE76-46CD-9818-C73546FE2D75}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8277477-A8DF-4299-9781-FE2B95BD378E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
   <si>
     <t>Jorge</t>
   </si>
@@ -254,6 +254,12 @@
     <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
            distancia_parque + distancia_cc + UPL 
 bathrooms:bedrooms + distancia_bus:ciclovia_near</t>
+  </si>
+  <si>
+    <t>tanda2_forest7.csv</t>
+  </si>
+  <si>
+    <t>tanda2_forest8.csv</t>
   </si>
 </sst>
 </file>
@@ -340,7 +346,18 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1147,10 +1164,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1297,7 +1314,7 @@
         <v>44</v>
       </c>
       <c r="D4">
-        <v>234905643</v>
+        <v>225148279</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1461,7 +1478,7 @@
         <v>44</v>
       </c>
       <c r="D8">
-        <v>272429852</v>
+        <v>227327830</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1543,7 +1560,7 @@
         <v>44</v>
       </c>
       <c r="D10">
-        <v>247433874</v>
+        <v>238120357</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1573,7 +1590,92 @@
         <v>9</v>
       </c>
     </row>
+    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11">
+        <v>228583426</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+      <c r="H11">
+        <v>450</v>
+      </c>
+      <c r="I11">
+        <v>50</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K11" s="1">
+        <v>45224</v>
+      </c>
+      <c r="L11" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12">
+        <v>225929355</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>450</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1">
+        <v>45224</v>
+      </c>
+      <c r="L12" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="D2:D12">
+    <cfRule type="top10" dxfId="0" priority="1" bottom="1" rank="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C8277477-A8DF-4299-9781-FE2B95BD378E}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E2475B-30DC-4395-8E52-02F0B09E4E9A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-220" yWindow="0" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="70">
   <si>
     <t>Jorge</t>
   </si>
@@ -260,6 +260,9 @@
   </si>
   <si>
     <t>tanda2_forest8.csv</t>
+  </si>
+  <si>
+    <t>tanda2_forest9.csv</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1167,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1670,6 +1673,47 @@
       </c>
       <c r="M12">
         <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13">
+        <v>230729339</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>450</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="1">
+        <v>45224</v>
+      </c>
+      <c r="L13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="217" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15E2475B-30DC-4395-8E52-02F0B09E4E9A}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B621EA1E-CA28-4816-AB29-081C1626E6CE}"/>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="0" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
   <sheets>
     <sheet name="Ridge" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="72">
   <si>
     <t>Jorge</t>
   </si>
@@ -263,6 +263,14 @@
   </si>
   <si>
     <t>tanda2_forest9.csv</t>
+  </si>
+  <si>
+    <t>tanda2_forest10.csv</t>
+  </si>
+  <si>
+    <t>price ~ year + surface_total + bedrooms + bathrooms + property_type2 + parqueadero  + pent_house + distancia_bus + ciclovia_near + 
+           distancia_parque + distancia_cc + UPL 
+bathrooms:bedrooms + distancia_bus:ciclovia_near + estrato:distancia_parque</t>
   </si>
 </sst>
 </file>
@@ -1167,10 +1175,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9D5B4A2-27DD-45E3-8CB5-626F3D8744BC}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1713,6 +1721,47 @@
         <v>0</v>
       </c>
       <c r="M13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14">
+        <v>228111306</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
+      </c>
+      <c r="H14">
+        <v>450</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K14" s="1">
+        <v>45224</v>
+      </c>
+      <c r="L14" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14">
         <v>12</v>
       </c>
     </row>

--- a/db_tandas/models_registry.xlsx
+++ b/db_tandas/models_registry.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ad47bb3061e54983/Escritorio/repositorios/P-Set2/db_tandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="222" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B621EA1E-CA28-4816-AB29-081C1626E6CE}"/>
+  <xr:revisionPtr revIDLastSave="223" documentId="13_ncr:1_{7C12F938-2F5E-49D8-8A44-108C8CA16E32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42198A03-70E7-480D-9DA6-4C686FB57A35}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{C564E30B-4F37-46F6-91C4-074D0E27D1A0}"/>
   </bookViews>
@@ -1177,8 +1177,8 @@
   <sheetPr codeName="Hoja5"/>
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
